--- a/tradept/Excel/Localization/english/C传承_Legacy_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C传承_Legacy_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2309562E-C60A-4932-9FB2-DE744A2A4099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EB65C-D861-4195-914A-292529F28C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1797,7 +1797,8 @@
     <col min="3" max="3" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="292.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="67.5">

--- a/tradept/Excel/Localization/english/C传承_Legacy_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/C传承_Legacy_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51EB65C-D861-4195-914A-292529F28C7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FE79AD-E35C-4312-888A-40F8460BD737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="408">
   <si>
     <t>传承ID_LegacyID</t>
   </si>
@@ -1296,12 +1296,35 @@
   <si>
     <t>[%story_mode%][&lt;&gt;]无名剑主#Available to all classes except The Nameless</t>
   </si>
+  <si>
+    <t>item_生子DLC体验模式</t>
+  </si>
+  <si>
+    <t>《生儿育女》快速体验模式</t>
+  </si>
+  <si>
+    <t>快速体验模式下，子嗣的成长周期整体缩短，会更快成长到成年期，但同时成长任务也会触发得更为频繁，较为影响游戏节奏，推荐有一定游戏经验的玩家选择。</t>
+  </si>
+  <si>
+    <t>[%global_int:生子DLC子嗣成年%][&gt;=]1#有一名子嗣成长到达成年时解锁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modo Rápido de Criação de Filhos
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No modo rápido, os ciclos de crescimento da prole serão encurtados, e eles crescerão até a idade adulta mais rapidamente. Isso significa que as tarefas serão acionadas com mais frequência. Recomendado para jogadores experientes.
+</t>
+  </si>
+  <si>
+    <t>[%global_int:生子DLC子嗣成年%][&gt;=]1#Desbloqueia quando um herdeiro atinge a idade adulta.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1349,8 +1372,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1373,8 +1408,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1410,15 +1451,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1468,11 +1538,29 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad 2" xfId="4" xr:uid="{40745BAD-F701-47CA-B781-9D686AD01A02}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{8EBE00D6-B9D0-4B51-884B-B39B21E7C0FA}"/>
+    <cellStyle name="普通" xfId="5" xr:uid="{398AB58C-E082-4F23-B710-21D7EC7EB90A}"/>
     <cellStyle name="普通 2" xfId="2" xr:uid="{04445DBE-F0C3-400D-AC4F-A8F034069EF5}"/>
+    <cellStyle name="普通 2 2" xfId="6" xr:uid="{EA318D7E-D3F6-44FD-A1E1-1FA42AE3517D}"/>
+    <cellStyle name="普通 3" xfId="8" xr:uid="{D5A3279A-013E-48A8-B985-6DD22E85B41D}"/>
+    <cellStyle name="普通 4" xfId="7" xr:uid="{3F376992-E515-4EFC-9DBF-C1FEA412A4BC}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1784,21 +1872,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection sqref="A1:G88"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="292.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="83.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="67.5">
@@ -3722,6 +3810,29 @@
         <v>398</v>
       </c>
     </row>
+    <row r="89" spans="1:7" ht="90">
+      <c r="A89" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>402</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>405</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="G89" s="20" t="s">
+        <v>407</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
